--- a/r.xlsx
+++ b/r.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Rugby Bot 1.3 manual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rugby-bot-official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550720D1-FA18-4F18-B2B6-8E7D0DFAE8E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270BE5E-BACC-452A-89A5-96516894E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>4 cat</t>
   </si>
@@ -34,45 +34,6 @@
     <t>1 cat</t>
   </si>
   <si>
-    <t>France v Uruguay</t>
-  </si>
-  <si>
-    <t>New Zealand v Namibia</t>
-  </si>
-  <si>
-    <t>Samoa v Chile</t>
-  </si>
-  <si>
-    <t>Wales v Portugal</t>
-  </si>
-  <si>
-    <t>Ireland v Tonga</t>
-  </si>
-  <si>
-    <t>South Africa v Romania</t>
-  </si>
-  <si>
-    <t>Australia v Fiji</t>
-  </si>
-  <si>
-    <t>England v Japan</t>
-  </si>
-  <si>
-    <t>Italy v Uruguay</t>
-  </si>
-  <si>
-    <t>France v Namibia</t>
-  </si>
-  <si>
-    <t>Argentina v Samoa</t>
-  </si>
-  <si>
-    <t>Georgia v Portugal</t>
-  </si>
-  <si>
-    <t>England v Chile</t>
-  </si>
-  <si>
     <t>South Africa v Ireland</t>
   </si>
   <si>
@@ -152,13 +113,40 @@
   </si>
   <si>
     <t>Winner SF1 v Winner SF2</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/south_africa_ireland_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/ireland_scotland_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/quarter_final2_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/quarter_final4_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/semi_final1_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/semi_final2_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/bronze_final_2023family</t>
+  </si>
+  <si>
+    <t>https://tickets.rugbyworldcup.com/en/final_2023family</t>
+  </si>
+  <si>
+    <t>sales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -207,6 +195,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -274,10 +270,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -307,8 +304,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -691,13 +692,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="7" max="7" width="76.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -717,33 +719,41 @@
       <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8"/>
+      <c r="G1" s="8" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D2" s="7">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7">
-        <v>2</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -751,12 +761,14 @@
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
@@ -764,7 +776,7 @@
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
@@ -777,24 +789,20 @@
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>9</v>
@@ -802,19 +810,23 @@
       <c r="C7" s="7">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
@@ -822,20 +834,24 @@
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="7">
+        <v>2</v>
+      </c>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>12</v>
@@ -848,7 +864,7 @@
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>13</v>
@@ -861,7 +877,7 @@
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>14</v>
@@ -874,7 +890,7 @@
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>15</v>
@@ -887,12 +903,14 @@
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="7">
+        <v>2</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -900,28 +918,22 @@
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>18</v>
@@ -934,7 +946,7 @@
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>19</v>
@@ -942,27 +954,39 @@
       <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="1"/>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>21</v>
@@ -975,24 +999,20 @@
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="7">
-        <v>2</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>23</v>
@@ -1000,345 +1020,212 @@
       <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7">
+        <v>4</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="1"/>
+      <c r="C22" s="7">
+        <v>1</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="7">
+        <v>4</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7">
+        <v>4</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="1"/>
+      <c r="C24" s="7">
+        <v>1</v>
+      </c>
+      <c r="D24" s="7">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="1"/>
+      <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
+        <v>2</v>
+      </c>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="1"/>
+      <c r="C26" s="7">
+        <v>1</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>2</v>
+      </c>
+      <c r="F26" s="7">
+        <v>2</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C27" s="7">
-        <v>2</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7">
+        <v>2</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="7">
-        <v>2</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="9">
-        <v>37</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="1"/>
-    </row>
+        <v>1</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="9">
-        <v>38</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1</v>
-      </c>
-      <c r="E30" s="7">
-        <v>2</v>
-      </c>
-      <c r="F30" s="7">
-        <v>1</v>
-      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="9">
-        <v>39</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="7">
-        <v>2</v>
-      </c>
-      <c r="D31" s="7">
-        <v>2</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="9">
-        <v>40</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9">
-        <v>41</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+    <row r="33" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="9">
-        <v>42</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="7">
-        <v>2</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4</v>
-      </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+    <row r="34" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="9">
-        <v>43</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
+    <row r="35" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>44</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="7">
-        <v>2</v>
-      </c>
-      <c r="D36" s="7">
-        <v>4</v>
-      </c>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
+    <row r="36" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="9">
-        <v>45</v>
-      </c>
-      <c r="B37" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="7">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1</v>
-      </c>
-      <c r="F37" s="7">
-        <v>1</v>
-      </c>
+    <row r="37" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="9">
-        <v>46</v>
-      </c>
-      <c r="B38" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
-        <v>2</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
+    <row r="38" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="9">
-        <v>47</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>2</v>
-      </c>
-      <c r="F39" s="7">
-        <v>2</v>
-      </c>
+    <row r="39" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="9">
-        <v>48</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" s="7">
-        <v>1</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7">
-        <v>2</v>
-      </c>
+    <row r="40" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="9">
-        <v>49</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C41" s="7">
-        <v>1</v>
-      </c>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
+    <row r="41" spans="7:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G41" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{F33204BA-44BE-4BF8-AA09-8161C2D4C232}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/r.xlsx
+++ b/r.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\rugby-bot-official\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A270BE5E-BACC-452A-89A5-96516894E392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F12AF54-B1BF-4FEC-9D60-4A5DABF713A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Аркуш1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>4 cat</t>
   </si>
@@ -34,75 +34,6 @@
     <t>1 cat</t>
   </si>
   <si>
-    <t>South Africa v Ireland</t>
-  </si>
-  <si>
-    <t>Scotland v Tonga</t>
-  </si>
-  <si>
-    <t>Wales v Australia</t>
-  </si>
-  <si>
-    <t>Uruguay v Namibia</t>
-  </si>
-  <si>
-    <t>Japan v Samoa</t>
-  </si>
-  <si>
-    <t>New Zealand v Italy</t>
-  </si>
-  <si>
-    <t>Argentina v Chile</t>
-  </si>
-  <si>
-    <t>Fiji v Georgia</t>
-  </si>
-  <si>
-    <t>Scotland v Romania</t>
-  </si>
-  <si>
-    <t>Australia v Portugal</t>
-  </si>
-  <si>
-    <t>South Africa v Tonga</t>
-  </si>
-  <si>
-    <t>New Zealand v Uruguay</t>
-  </si>
-  <si>
-    <t>France v Italy</t>
-  </si>
-  <si>
-    <t>Wales v Georgia</t>
-  </si>
-  <si>
-    <t>England v Samoa</t>
-  </si>
-  <si>
-    <t>Ireland v Scotland</t>
-  </si>
-  <si>
-    <t>Japan v Argentina</t>
-  </si>
-  <si>
-    <t>Tonga v Romania</t>
-  </si>
-  <si>
-    <t>Fiji v Portugal</t>
-  </si>
-  <si>
-    <t>Winner Pool C v Runner-Up Pool D</t>
-  </si>
-  <si>
-    <t>Winner Pool B v Runner-Up Pool A</t>
-  </si>
-  <si>
-    <t>Winner Pool D v Runner-Up Pool C</t>
-  </si>
-  <si>
-    <t>Winner Pool A v Runner-Up Pool B</t>
-  </si>
-  <si>
     <t>Winner QF1 v Winner QF2</t>
   </si>
   <si>
@@ -113,18 +44,6 @@
   </si>
   <si>
     <t>Winner SF1 v Winner SF2</t>
-  </si>
-  <si>
-    <t>https://tickets.rugbyworldcup.com/en/south_africa_ireland_2023family</t>
-  </si>
-  <si>
-    <t>https://tickets.rugbyworldcup.com/en/ireland_scotland_2023family</t>
-  </si>
-  <si>
-    <t>https://tickets.rugbyworldcup.com/en/quarter_final2_2023family</t>
-  </si>
-  <si>
-    <t>https://tickets.rugbyworldcup.com/en/quarter_final4_2023family</t>
   </si>
   <si>
     <t>https://tickets.rugbyworldcup.com/en/semi_final1_2023family</t>
@@ -146,7 +65,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -195,14 +114,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -270,11 +181,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -304,12 +214,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -692,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6.5703125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -708,92 +614,108 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>3</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7">
-        <v>1</v>
-      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
       <c r="E2" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7">
-        <v>2</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>31</v>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="1"/>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="1"/>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -801,61 +723,35 @@
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
-        <v>28</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="7">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="7">
-        <v>2</v>
-      </c>
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>30</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7">
-        <v>2</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>31</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -863,12 +759,8 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>32</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -876,12 +768,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
-        <v>33</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -889,12 +777,8 @@
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="9">
-        <v>34</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -902,42 +786,26 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9">
-        <v>35</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="7">
-        <v>2</v>
-      </c>
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9">
-        <v>36</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="7">
-        <v>2</v>
-      </c>
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>37</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -945,52 +813,26 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
-        <v>38</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
-        <v>39</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="7">
-        <v>2</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="9">
-        <v>40</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
+      <c r="A19" s="9"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
@@ -998,12 +840,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="9">
-        <v>41</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
@@ -1011,178 +849,40 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="9">
-        <v>42</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="7">
-        <v>2</v>
-      </c>
-      <c r="D21" s="7">
-        <v>4</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
-        <v>43</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1</v>
-      </c>
-      <c r="F22" s="7">
-        <v>1</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9">
-        <v>44</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>4</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7">
-        <v>4</v>
-      </c>
+      <c r="F23" s="7"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="9">
-        <v>45</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="9">
-        <v>46</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>2</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="9">
-        <v>47</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1</v>
-      </c>
-      <c r="E26" s="7">
-        <v>2</v>
-      </c>
-      <c r="F26" s="7">
-        <v>2</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9">
-        <v>48</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>2</v>
-      </c>
-      <c r="F27" s="7">
-        <v>2</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="9">
-        <v>49</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1</v>
-      </c>
-      <c r="F28" s="7">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:7" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1222,10 +922,7 @@
       <c r="G41" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{F33204BA-44BE-4BF8-AA09-8161C2D4C232}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>